--- a/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/3U4U.xlsx
+++ b/AutoFirmwareUpgrade/CashelFirmwareAutomatedTest/TestDataFiles/CablingDataSet/3U4U.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20325"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20188FD6-07DE-4318-ADB7-95400677DD2F}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0714496A-8B49-4F45-A027-920FEE7E8B9B}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="DeviceInfo" sheetId="3" r:id="rId1"/>
@@ -773,7 +773,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5E1D80EA-95E6-4242-991F-C74D56529BA6}">
   <dimension ref="A1:B7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection sqref="A1:B7"/>
     </sheetView>
   </sheetViews>
@@ -844,8 +844,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A56B985-C67E-4CA5-8E14-F83349506217}">
   <dimension ref="A1:B41"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection sqref="A1:B41"/>
+    <sheetView topLeftCell="A8" workbookViewId="0">
+      <selection activeCell="B12" sqref="B12:B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1993,8 +1993,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2086,7 +2086,7 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -2100,7 +2100,7 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -2114,7 +2114,7 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>0</v>
+        <v>18</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16</v>
+        <v>0</v>
       </c>
       <c r="C13">
         <v>11</v>
